--- a/DataSet_Courses_Syllabus-cleansing_data2.xlsx
+++ b/DataSet_Courses_Syllabus-cleansing_data2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanasinyatsungnoen/Desktop/CTS_Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5EB8043-1A09-4441-8D1F-3DA5A9DB31FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB4CAC2-3F17-DA45-A4C7-B474BEC961EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14980" xr2:uid="{41C849AD-32B6-E047-AC4A-E0AC0BDC9877}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14980" activeTab="1" xr2:uid="{41C849AD-32B6-E047-AC4A-E0AC0BDC9877}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Destination U" sheetId="1" r:id="rId2"/>
-    <sheet name="Previous U " sheetId="2" r:id="rId3"/>
+    <sheet name="Destination_U" sheetId="1" r:id="rId2"/>
+    <sheet name="Previous_U" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="185">
   <si>
     <t>Credit</t>
   </si>
@@ -516,9 +516,6 @@
     <t>Boolean search</t>
   </si>
   <si>
-    <t xml:space="preserve">	Sorting</t>
-  </si>
-  <si>
     <t>Dynamic Programming</t>
   </si>
   <si>
@@ -544,6 +541,54 @@
   </si>
   <si>
     <t>Sorting</t>
+  </si>
+  <si>
+    <t>MSC-102</t>
+  </si>
+  <si>
+    <t>Introduction of C</t>
+  </si>
+  <si>
+    <t>Course_Code</t>
+  </si>
+  <si>
+    <t>Course_Name</t>
+  </si>
+  <si>
+    <t>Course_Group</t>
+  </si>
+  <si>
+    <t>Course_Type</t>
+  </si>
+  <si>
+    <t>Content_1</t>
+  </si>
+  <si>
+    <t>Content_2</t>
+  </si>
+  <si>
+    <t>Content_3</t>
+  </si>
+  <si>
+    <t>Content_4</t>
+  </si>
+  <si>
+    <t>Content_5</t>
+  </si>
+  <si>
+    <t>Content_6</t>
+  </si>
+  <si>
+    <t>Content_7</t>
+  </si>
+  <si>
+    <t>Content_8</t>
+  </si>
+  <si>
+    <t>Content_9</t>
+  </si>
+  <si>
+    <t>Content_10</t>
   </si>
 </sst>
 </file>
@@ -578,18 +623,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -642,13 +681,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,10 +693,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,56 +1030,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9ACA70-73BE-ED4D-80A3-5156BD285B40}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1060,34 +1099,34 @@
       <c r="E2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1107,34 +1146,34 @@
       <c r="E3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="M3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1154,34 +1193,34 @@
       <c r="E4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1201,34 +1240,34 @@
       <c r="E5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1248,34 +1287,34 @@
       <c r="E6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1295,34 +1334,34 @@
       <c r="E7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1342,34 +1381,34 @@
       <c r="E8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1389,34 +1428,34 @@
       <c r="E9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="5" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1436,34 +1475,34 @@
       <c r="E10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="5" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1483,39 +1522,39 @@
       <c r="E11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1530,34 +1569,34 @@
       <c r="E12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="7" t="s">
+      <c r="L12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1577,34 +1616,34 @@
       <c r="E13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="H13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1624,34 +1663,34 @@
       <c r="E14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="5" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1671,34 +1710,34 @@
       <c r="E15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1718,34 +1757,34 @@
       <c r="E16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1765,34 +1804,34 @@
       <c r="E17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1812,34 +1851,34 @@
       <c r="E18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1859,34 +1898,34 @@
       <c r="E19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="5" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1906,34 +1945,34 @@
       <c r="E20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="5" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1953,34 +1992,34 @@
       <c r="E21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="5" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1989,7 +2028,7 @@
         <v>137</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>92</v>
@@ -2000,43 +2039,43 @@
       <c r="E22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="O22" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>92</v>
@@ -2047,34 +2086,34 @@
       <c r="E23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="7" t="s">
+      <c r="L23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2085,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA62DC7-30B1-7F40-8152-B23FF45476FE}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2107,49 +2146,49 @@
         <v>134</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -2171,34 +2210,34 @@
       <c r="F2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2207,49 +2246,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>140</v>
+      <c r="L3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -2257,10 +2296,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>89</v>
@@ -2271,35 +2310,35 @@
       <c r="F4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>14</v>
+      <c r="G4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -2307,10 +2346,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>89</v>
@@ -2319,37 +2358,37 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>34</v>
+        <v>91</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,49 +2396,49 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>43</v>
+      <c r="G6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -2407,10 +2446,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>92</v>
@@ -2421,35 +2460,35 @@
       <c r="F7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -2457,13 +2496,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
@@ -2471,35 +2510,35 @@
       <c r="F8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>61</v>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -2507,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>89</v>
@@ -2521,35 +2560,35 @@
       <c r="F9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>128</v>
+      <c r="G9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -2557,13 +2596,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
@@ -2571,35 +2610,35 @@
       <c r="F10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -2607,10 +2646,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>92</v>
@@ -2621,34 +2660,84 @@
       <c r="F11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P11" s="7" t="s">
+      <c r="O12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2661,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDEBABC-B31D-9740-AFFD-97FA3DCFFB90}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:P13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2679,60 +2768,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>80</v>
+      <c r="F1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2747,34 +2836,34 @@
       <c r="F2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="7" t="s">
+      <c r="M2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2797,34 +2886,34 @@
       <c r="F3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2847,34 +2936,34 @@
       <c r="F4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="5" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2897,34 +2986,34 @@
       <c r="F5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2947,34 +3036,34 @@
       <c r="F6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2997,34 +3086,34 @@
       <c r="F7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3047,34 +3136,34 @@
       <c r="F8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3097,34 +3186,34 @@
       <c r="F9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="5" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3147,34 +3236,34 @@
       <c r="F10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="5" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3197,34 +3286,34 @@
       <c r="F11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="5" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3236,7 +3325,7 @@
         <v>137</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>92</v>
@@ -3247,85 +3336,35 @@
       <c r="F12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="N12" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="O12" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
